--- a/full_Ecemm_TREATMENTonly_wcalculations.xlsx
+++ b/full_Ecemm_TREATMENTonly_wcalculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/lindsay_e_martin_vanderbilt_edu/Documents/Hillyer_Lab/Lytic_Immunity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{14A4D61D-2BDA-4625-A8B7-0A14C55725AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7445BA1F-9773-4435-A474-65873F325AFD}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{14A4D61D-2BDA-4625-A8B7-0A14C55725AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EA40B81-64CE-4B76-85FE-A2CEB2032AC2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2500" yWindow="340" windowWidth="13210" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,6 +422,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
